--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.862015666666667</v>
+      </c>
+      <c r="H2">
+        <v>5.586047</v>
+      </c>
+      <c r="I2">
+        <v>0.399282427039184</v>
+      </c>
+      <c r="J2">
+        <v>0.3992824270391842</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.7297790000000001</v>
-      </c>
-      <c r="H2">
-        <v>2.189337</v>
-      </c>
-      <c r="I2">
-        <v>0.2376649802178973</v>
-      </c>
-      <c r="J2">
-        <v>0.2376649802178973</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1771103333333333</v>
+        <v>0.08226166666666666</v>
       </c>
       <c r="N2">
-        <v>0.531331</v>
+        <v>0.246785</v>
       </c>
       <c r="O2">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P2">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q2">
-        <v>0.1292514019496667</v>
+        <v>0.1531725120994444</v>
       </c>
       <c r="R2">
-        <v>1.163262617547</v>
+        <v>1.378552608895</v>
       </c>
       <c r="S2">
-        <v>0.1569797776605653</v>
+        <v>0.3608141963150871</v>
       </c>
       <c r="T2">
-        <v>0.1569797776605653</v>
+        <v>0.3608141963150873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7297790000000001</v>
+        <v>1.862015666666667</v>
       </c>
       <c r="H3">
-        <v>2.189337</v>
+        <v>5.586047</v>
       </c>
       <c r="I3">
-        <v>0.2376649802178973</v>
+        <v>0.399282427039184</v>
       </c>
       <c r="J3">
-        <v>0.2376649802178973</v>
+        <v>0.3992824270391842</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08226166666666666</v>
+        <v>0.008770333333333333</v>
       </c>
       <c r="N3">
-        <v>0.246785</v>
+        <v>0.026311</v>
       </c>
       <c r="O3">
-        <v>0.3067835863291511</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P3">
-        <v>0.306783586329151</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q3">
-        <v>0.06003283683833334</v>
+        <v>0.01633049806855555</v>
       </c>
       <c r="R3">
-        <v>0.540295531545</v>
+        <v>0.146974482617</v>
       </c>
       <c r="S3">
-        <v>0.07291171497609329</v>
+        <v>0.03846823072409691</v>
       </c>
       <c r="T3">
-        <v>0.07291171497609326</v>
+        <v>0.03846823072409693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.017090333333333</v>
+      </c>
+      <c r="H4">
+        <v>6.051271</v>
+      </c>
+      <c r="I4">
+        <v>0.4325359545939786</v>
+      </c>
+      <c r="J4">
+        <v>0.4325359545939787</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.7297790000000001</v>
-      </c>
-      <c r="H4">
-        <v>2.189337</v>
-      </c>
-      <c r="I4">
-        <v>0.2376649802178973</v>
-      </c>
-      <c r="J4">
-        <v>0.2376649802178973</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.008770333333333333</v>
+        <v>0.08226166666666666</v>
       </c>
       <c r="N4">
-        <v>0.026311</v>
+        <v>0.246785</v>
       </c>
       <c r="O4">
-        <v>0.0327077534692396</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P4">
-        <v>0.0327077534692396</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q4">
-        <v>0.006400405089666667</v>
+        <v>0.1659292126372222</v>
       </c>
       <c r="R4">
-        <v>0.057603645807</v>
+        <v>1.493362913735</v>
       </c>
       <c r="S4">
-        <v>0.007773487581238691</v>
+        <v>0.3908639656182259</v>
       </c>
       <c r="T4">
-        <v>0.00777348758123869</v>
+        <v>0.390863965618226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,13 +726,13 @@
         <v>2.017090333333333</v>
       </c>
       <c r="H5">
-        <v>6.051271000000001</v>
+        <v>6.051271</v>
       </c>
       <c r="I5">
-        <v>0.6568998753997833</v>
+        <v>0.4325359545939786</v>
       </c>
       <c r="J5">
-        <v>0.6568998753997835</v>
+        <v>0.4325359545939787</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,60 +741,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1771103333333333</v>
+        <v>0.008770333333333333</v>
       </c>
       <c r="N5">
-        <v>0.531331</v>
+        <v>0.026311</v>
       </c>
       <c r="O5">
-        <v>0.6605086602016094</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P5">
-        <v>0.6605086602016094</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q5">
-        <v>0.3572475413001112</v>
+        <v>0.01769055458677778</v>
       </c>
       <c r="R5">
-        <v>3.215227871701</v>
+        <v>0.159214991281</v>
       </c>
       <c r="S5">
-        <v>0.433888056586915</v>
+        <v>0.04167198897575274</v>
       </c>
       <c r="T5">
-        <v>0.4338880565869151</v>
+        <v>0.04167198897575275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.017090333333333</v>
+        <v>0.1819486666666667</v>
       </c>
       <c r="H6">
-        <v>6.051271000000001</v>
+        <v>0.5458460000000001</v>
       </c>
       <c r="I6">
-        <v>0.6568998753997833</v>
+        <v>0.0390162695855639</v>
       </c>
       <c r="J6">
-        <v>0.6568998753997835</v>
+        <v>0.03901626958556391</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,54 +809,54 @@
         <v>0.246785</v>
       </c>
       <c r="O6">
-        <v>0.3067835863291511</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P6">
-        <v>0.306783586329151</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q6">
-        <v>0.1659292126372222</v>
+        <v>0.01496740056777778</v>
       </c>
       <c r="R6">
-        <v>1.493362913735</v>
+        <v>0.13470660511</v>
       </c>
       <c r="S6">
-        <v>0.201526099634318</v>
+        <v>0.03525730911354757</v>
       </c>
       <c r="T6">
-        <v>0.201526099634318</v>
+        <v>0.03525730911354758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.017090333333333</v>
+        <v>0.1819486666666667</v>
       </c>
       <c r="H7">
-        <v>6.051271000000001</v>
+        <v>0.5458460000000001</v>
       </c>
       <c r="I7">
-        <v>0.6568998753997833</v>
+        <v>0.0390162695855639</v>
       </c>
       <c r="J7">
-        <v>0.6568998753997835</v>
+        <v>0.03901626958556391</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,36 +871,36 @@
         <v>0.026311</v>
       </c>
       <c r="O7">
-        <v>0.0327077534692396</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P7">
-        <v>0.0327077534692396</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q7">
-        <v>0.01769055458677778</v>
+        <v>0.001595750456222222</v>
       </c>
       <c r="R7">
-        <v>0.159214991281</v>
+        <v>0.014361754106</v>
       </c>
       <c r="S7">
-        <v>0.02148571917855032</v>
+        <v>0.003758960472016331</v>
       </c>
       <c r="T7">
-        <v>0.02148571917855033</v>
+        <v>0.003758960472016331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,60 +909,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3237513333333333</v>
+        <v>0.6023503333333334</v>
       </c>
       <c r="H8">
-        <v>0.9712540000000001</v>
+        <v>1.807051</v>
       </c>
       <c r="I8">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="J8">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1771103333333333</v>
+        <v>0.08226166666666666</v>
       </c>
       <c r="N8">
-        <v>0.531331</v>
+        <v>0.246785</v>
       </c>
       <c r="O8">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P8">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q8">
-        <v>0.05733970656377778</v>
+        <v>0.04955034233722223</v>
       </c>
       <c r="R8">
-        <v>0.5160573590740001</v>
+        <v>0.445953081035</v>
       </c>
       <c r="S8">
-        <v>0.0696408259541289</v>
+        <v>0.1167211185773007</v>
       </c>
       <c r="T8">
-        <v>0.0696408259541289</v>
+        <v>0.1167211185773007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,108 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3237513333333333</v>
+        <v>0.6023503333333334</v>
       </c>
       <c r="H9">
-        <v>0.9712540000000001</v>
+        <v>1.807051</v>
       </c>
       <c r="I9">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="J9">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08226166666666666</v>
+        <v>0.008770333333333333</v>
       </c>
       <c r="N9">
-        <v>0.246785</v>
+        <v>0.026311</v>
       </c>
       <c r="O9">
-        <v>0.3067835863291511</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P9">
-        <v>0.306783586329151</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q9">
-        <v>0.02663232426555556</v>
+        <v>0.005282813206777779</v>
       </c>
       <c r="R9">
-        <v>0.23969091839</v>
+        <v>0.047545318861</v>
       </c>
       <c r="S9">
-        <v>0.03234577171873974</v>
+        <v>0.01244423020397252</v>
       </c>
       <c r="T9">
-        <v>0.03234577171873973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3237513333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.9712540000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.1054351443823192</v>
-      </c>
-      <c r="J10">
-        <v>0.1054351443823192</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.008770333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.026311</v>
-      </c>
-      <c r="O10">
-        <v>0.0327077534692396</v>
-      </c>
-      <c r="P10">
-        <v>0.0327077534692396</v>
-      </c>
-      <c r="Q10">
-        <v>0.002839407110444444</v>
-      </c>
-      <c r="R10">
-        <v>0.025554663994</v>
-      </c>
-      <c r="S10">
-        <v>0.003448546709450579</v>
-      </c>
-      <c r="T10">
-        <v>0.003448546709450579</v>
+        <v>0.01244423020397252</v>
       </c>
     </row>
   </sheetData>
